--- a/test data/test_demo.xlsx
+++ b/test data/test_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttgcgroup-my.sharepoint.com/personal/26005064_pttgcgroup_com/Documents/DATA/Nut/FiT, T-II, Digital Projects/Sour water pH analysis/test data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{81848636-37C4-4884-A310-2636AD2563E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FA50EC8-D359-476A-BB43-6DC9CB16A542}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{81848636-37C4-4884-A310-2636AD2563E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4DAD808-27C0-41B8-9E54-4A2DFAB3450A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{D11B6806-CD9A-4C10-8C3A-DF2E39F18879}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="13824" windowHeight="7176" xr2:uid="{D11B6806-CD9A-4C10-8C3A-DF2E39F18879}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
